--- a/Summaries/SP1/Las Palmas_Mallorca_adv.xlsx
+++ b/Summaries/SP1/Las Palmas_Mallorca_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="373">
   <si>
     <t>Div</t>
   </si>
@@ -505,154 +505,154 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1758</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>1135</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1687</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>1304</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>1441</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>1337</t>
-  </si>
-  <si>
-    <t>1621</t>
-  </si>
-  <si>
-    <t>1914</t>
+    <t>472</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1348</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>2117</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1928</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>1698</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>1830</t>
+    <t>513</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1842</t>
   </si>
   <si>
     <t>Samu Costa</t>
@@ -859,6 +859,9 @@
     <t>FW</t>
   </si>
   <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
     <t>GK</t>
   </si>
   <si>
@@ -868,166 +871,160 @@
     <t>DF,MF</t>
   </si>
   <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
     <t>es La Liga</t>
   </si>
   <si>
-    <t>23-348</t>
-  </si>
-  <si>
-    <t>22-113</t>
-  </si>
-  <si>
-    <t>31-162</t>
-  </si>
-  <si>
-    <t>19-240</t>
-  </si>
-  <si>
-    <t>31-236</t>
-  </si>
-  <si>
-    <t>27-054</t>
-  </si>
-  <si>
-    <t>25-302</t>
-  </si>
-  <si>
-    <t>29-278</t>
-  </si>
-  <si>
-    <t>22-130</t>
-  </si>
-  <si>
-    <t>36-016</t>
-  </si>
-  <si>
-    <t>21-040</t>
-  </si>
-  <si>
-    <t>29-123</t>
-  </si>
-  <si>
-    <t>28-249</t>
-  </si>
-  <si>
-    <t>24-278</t>
-  </si>
-  <si>
-    <t>25-030</t>
-  </si>
-  <si>
-    <t>29-206</t>
-  </si>
-  <si>
-    <t>31-281</t>
-  </si>
-  <si>
-    <t>32-080</t>
-  </si>
-  <si>
-    <t>31-338</t>
-  </si>
-  <si>
-    <t>29-124</t>
-  </si>
-  <si>
-    <t>35-201</t>
-  </si>
-  <si>
-    <t>25-244</t>
-  </si>
-  <si>
-    <t>24-129</t>
-  </si>
-  <si>
-    <t>27-363</t>
-  </si>
-  <si>
-    <t>30-102</t>
-  </si>
-  <si>
-    <t>29-255</t>
-  </si>
-  <si>
-    <t>29-121</t>
-  </si>
-  <si>
-    <t>24-352</t>
-  </si>
-  <si>
-    <t>27-120</t>
-  </si>
-  <si>
-    <t>30-199</t>
-  </si>
-  <si>
-    <t>22-211</t>
-  </si>
-  <si>
-    <t>36-156</t>
-  </si>
-  <si>
-    <t>28-334</t>
-  </si>
-  <si>
-    <t>19-119</t>
-  </si>
-  <si>
-    <t>27-018</t>
-  </si>
-  <si>
-    <t>27-271</t>
-  </si>
-  <si>
-    <t>21-180</t>
-  </si>
-  <si>
-    <t>28-158</t>
-  </si>
-  <si>
-    <t>28-103</t>
+    <t>23-355</t>
+  </si>
+  <si>
+    <t>22-120</t>
+  </si>
+  <si>
+    <t>31-169</t>
+  </si>
+  <si>
+    <t>19-247</t>
+  </si>
+  <si>
+    <t>31-243</t>
+  </si>
+  <si>
+    <t>27-061</t>
+  </si>
+  <si>
+    <t>25-309</t>
+  </si>
+  <si>
+    <t>29-285</t>
+  </si>
+  <si>
+    <t>22-137</t>
+  </si>
+  <si>
+    <t>36-023</t>
+  </si>
+  <si>
+    <t>21-047</t>
+  </si>
+  <si>
+    <t>29-130</t>
+  </si>
+  <si>
+    <t>28-256</t>
+  </si>
+  <si>
+    <t>24-285</t>
+  </si>
+  <si>
+    <t>25-037</t>
+  </si>
+  <si>
+    <t>29-213</t>
+  </si>
+  <si>
+    <t>31-288</t>
+  </si>
+  <si>
+    <t>32-087</t>
+  </si>
+  <si>
+    <t>31-345</t>
+  </si>
+  <si>
+    <t>29-131</t>
+  </si>
+  <si>
+    <t>35-208</t>
+  </si>
+  <si>
+    <t>25-251</t>
+  </si>
+  <si>
+    <t>24-136</t>
+  </si>
+  <si>
+    <t>28-004</t>
+  </si>
+  <si>
+    <t>30-109</t>
+  </si>
+  <si>
+    <t>29-262</t>
   </si>
   <si>
     <t>29-128</t>
   </si>
   <si>
-    <t>29-365</t>
-  </si>
-  <si>
-    <t>30-323</t>
-  </si>
-  <si>
-    <t>18-313</t>
-  </si>
-  <si>
-    <t>27-217</t>
-  </si>
-  <si>
-    <t>26-354</t>
-  </si>
-  <si>
-    <t>21-186</t>
-  </si>
-  <si>
-    <t>33-032</t>
-  </si>
-  <si>
-    <t>24-126</t>
-  </si>
-  <si>
-    <t>27-313</t>
+    <t>24-359</t>
+  </si>
+  <si>
+    <t>27-127</t>
+  </si>
+  <si>
+    <t>30-206</t>
+  </si>
+  <si>
+    <t>22-218</t>
+  </si>
+  <si>
+    <t>36-163</t>
+  </si>
+  <si>
+    <t>28-341</t>
+  </si>
+  <si>
+    <t>19-126</t>
+  </si>
+  <si>
+    <t>27-025</t>
+  </si>
+  <si>
+    <t>27-278</t>
+  </si>
+  <si>
+    <t>21-187</t>
+  </si>
+  <si>
+    <t>28-165</t>
+  </si>
+  <si>
+    <t>28-110</t>
+  </si>
+  <si>
+    <t>29-135</t>
+  </si>
+  <si>
+    <t>30-006</t>
+  </si>
+  <si>
+    <t>30-330</t>
+  </si>
+  <si>
+    <t>18-320</t>
+  </si>
+  <si>
+    <t>27-224</t>
+  </si>
+  <si>
+    <t>26-361</t>
+  </si>
+  <si>
+    <t>21-193</t>
+  </si>
+  <si>
+    <t>33-039</t>
+  </si>
+  <si>
+    <t>24-133</t>
+  </si>
+  <si>
+    <t>27-320</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>1993</t>
   </si>
   <si>
     <t>2005</t>
@@ -3824,7 +3821,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="n">
-        <v>482.0</v>
+        <v>483.0</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
@@ -3848,10 +3845,10 @@
         <v>335</v>
       </c>
       <c r="J2" t="n">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L2" t="n">
         <v>1.0</v>
@@ -3860,19 +3857,19 @@
         <v>1.0</v>
       </c>
       <c r="N2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="P2" t="n">
         <v>1.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="S2" t="n">
         <v>15.0</v>
@@ -3887,16 +3884,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="X2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y2" t="n">
         <v>12.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>68.4</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="3">
@@ -3904,7 +3901,7 @@
         <v>164</v>
       </c>
       <c r="B3" t="n">
-        <v>1927.0</v>
+        <v>1940.0</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
@@ -3984,7 +3981,7 @@
         <v>165</v>
       </c>
       <c r="B4" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="C4" t="s">
         <v>215</v>
@@ -4005,7 +4002,7 @@
         <v>288</v>
       </c>
       <c r="I4" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J4" t="n">
         <v>4.6</v>
@@ -4047,7 +4044,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="X4" t="n">
         <v>7.0</v>
@@ -4064,7 +4061,7 @@
         <v>166</v>
       </c>
       <c r="B5" t="n">
-        <v>679.0</v>
+        <v>683.0</v>
       </c>
       <c r="C5" t="s">
         <v>216</v>
@@ -4085,7 +4082,7 @@
         <v>289</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J5" t="n">
         <v>7.4</v>
@@ -4127,7 +4124,7 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="X5" t="n">
         <v>10.0</v>
@@ -4144,7 +4141,7 @@
         <v>167</v>
       </c>
       <c r="B6" t="n">
-        <v>2006.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C6" t="s">
         <v>217</v>
@@ -4165,7 +4162,7 @@
         <v>290</v>
       </c>
       <c r="I6" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J6" t="n">
         <v>9.9</v>
@@ -4224,7 +4221,7 @@
         <v>168</v>
       </c>
       <c r="B7" t="n">
-        <v>2170.0</v>
+        <v>2185.0</v>
       </c>
       <c r="C7" t="s">
         <v>218</v>
@@ -4245,7 +4242,7 @@
         <v>291</v>
       </c>
       <c r="I7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J7" t="n">
         <v>7.6</v>
@@ -4275,7 +4272,7 @@
         <v>14.0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -4304,7 +4301,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="n">
-        <v>1436.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C8" t="s">
         <v>219</v>
@@ -4325,10 +4322,10 @@
         <v>292</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J8" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="K8" t="n">
         <v>3.0</v>
@@ -4340,22 +4337,22 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -4367,7 +4364,7 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="X8" t="n">
         <v>8.0</v>
@@ -4384,7 +4381,7 @@
         <v>170</v>
       </c>
       <c r="B9" t="n">
-        <v>990.0</v>
+        <v>995.0</v>
       </c>
       <c r="C9" t="s">
         <v>220</v>
@@ -4405,7 +4402,7 @@
         <v>293</v>
       </c>
       <c r="I9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J9" t="n">
         <v>2.8</v>
@@ -4464,7 +4461,7 @@
         <v>171</v>
       </c>
       <c r="B10" t="n">
-        <v>1300.0</v>
+        <v>1308.0</v>
       </c>
       <c r="C10" t="s">
         <v>221</v>
@@ -4544,7 +4541,7 @@
         <v>172</v>
       </c>
       <c r="B11" t="n">
-        <v>1329.0</v>
+        <v>1337.0</v>
       </c>
       <c r="C11" t="s">
         <v>222</v>
@@ -4565,7 +4562,7 @@
         <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J11" t="n">
         <v>2.6</v>
@@ -4624,7 +4621,7 @@
         <v>173</v>
       </c>
       <c r="B12" t="n">
-        <v>1421.0</v>
+        <v>1431.0</v>
       </c>
       <c r="C12" t="s">
         <v>223</v>
@@ -4645,7 +4642,7 @@
         <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J12" t="n">
         <v>11.3</v>
@@ -4675,7 +4672,7 @@
         <v>6.0</v>
       </c>
       <c r="S12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -4687,7 +4684,7 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
@@ -4704,7 +4701,7 @@
         <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>1725.0</v>
+        <v>1736.0</v>
       </c>
       <c r="C13" t="s">
         <v>224</v>
@@ -4725,7 +4722,7 @@
         <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J13" t="n">
         <v>6.2</v>
@@ -4784,7 +4781,7 @@
         <v>175</v>
       </c>
       <c r="B14" t="n">
-        <v>1783.0</v>
+        <v>1794.0</v>
       </c>
       <c r="C14" t="s">
         <v>225</v>
@@ -4805,7 +4802,7 @@
         <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J14" t="n">
         <v>11.2</v>
@@ -4829,7 +4826,7 @@
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="R14" t="n">
         <v>4.0</v>
@@ -4847,7 +4844,7 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="X14" t="n">
         <v>5.0</v>
@@ -4864,7 +4861,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="n">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="C15" t="s">
         <v>226</v>
@@ -4873,7 +4870,7 @@
         <v>263</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
@@ -4888,7 +4885,7 @@
         <v>335</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.0</v>
@@ -4903,13 +4900,13 @@
         <v>4.0</v>
       </c>
       <c r="O15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="R15" t="n">
         <v>2.0</v>
@@ -4927,7 +4924,7 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="X15" t="n">
         <v>0.0</v>
@@ -4944,7 +4941,7 @@
         <v>177</v>
       </c>
       <c r="B16" t="n">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="C16" t="s">
         <v>227</v>
@@ -4965,7 +4962,7 @@
         <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J16" t="n">
         <v>4.4</v>
@@ -5024,7 +5021,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="n">
-        <v>1153.0</v>
+        <v>1159.0</v>
       </c>
       <c r="C17" t="s">
         <v>228</v>
@@ -5045,10 +5042,10 @@
         <v>301</v>
       </c>
       <c r="I17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J17" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="K17" t="n">
         <v>2.0</v>
@@ -5060,13 +5057,13 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="P17" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -5090,13 +5087,13 @@
         <v>19.0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>31.9</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="18">
@@ -5104,7 +5101,7 @@
         <v>179</v>
       </c>
       <c r="B18" t="n">
-        <v>1324.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C18" t="s">
         <v>229</v>
@@ -5125,7 +5122,7 @@
         <v>302</v>
       </c>
       <c r="I18" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J18" t="n">
         <v>6.9</v>
@@ -5184,7 +5181,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>1420.0</v>
+        <v>1430.0</v>
       </c>
       <c r="C19" t="s">
         <v>230</v>
@@ -5205,10 +5202,10 @@
         <v>303</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J19" t="n">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.0</v>
@@ -5229,14 +5226,14 @@
         <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="R19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>9.0</v>
       </c>
-      <c r="S19" t="n">
-        <v>8.0</v>
-      </c>
       <c r="T19" t="n">
         <v>0.0</v>
       </c>
@@ -5247,7 +5244,7 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>59.0</v>
+        <v>65.0</v>
       </c>
       <c r="X19" t="n">
         <v>5.0</v>
@@ -5264,7 +5261,7 @@
         <v>181</v>
       </c>
       <c r="B20" t="n">
-        <v>1710.0</v>
+        <v>1721.0</v>
       </c>
       <c r="C20" t="s">
         <v>231</v>
@@ -5285,10 +5282,10 @@
         <v>304</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="K20" t="n">
         <v>2.0</v>
@@ -5300,7 +5297,7 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O20" t="n">
         <v>7.0</v>
@@ -5327,7 +5324,7 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="X20" t="n">
         <v>9.0</v>
@@ -5344,7 +5341,7 @@
         <v>182</v>
       </c>
       <c r="B21" t="n">
-        <v>378.0</v>
+        <v>379.0</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
@@ -5365,7 +5362,7 @@
         <v>305</v>
       </c>
       <c r="I21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J21" t="n">
         <v>0.8</v>
@@ -5424,7 +5421,7 @@
         <v>183</v>
       </c>
       <c r="B22" t="n">
-        <v>440.0</v>
+        <v>441.0</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5433,7 +5430,7 @@
         <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
         <v>93</v>
@@ -5445,7 +5442,7 @@
         <v>306</v>
       </c>
       <c r="I22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J22" t="n">
         <v>10.7</v>
@@ -5504,7 +5501,7 @@
         <v>184</v>
       </c>
       <c r="B23" t="n">
-        <v>941.0</v>
+        <v>946.0</v>
       </c>
       <c r="C23" t="s">
         <v>234</v>
@@ -5513,7 +5510,7 @@
         <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
         <v>93</v>
@@ -5525,7 +5522,7 @@
         <v>307</v>
       </c>
       <c r="I23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J23" t="n">
         <v>2.3</v>
@@ -5584,7 +5581,7 @@
         <v>185</v>
       </c>
       <c r="B24" t="n">
-        <v>1207.0</v>
+        <v>1214.0</v>
       </c>
       <c r="C24" t="s">
         <v>235</v>
@@ -5664,7 +5661,7 @@
         <v>186</v>
       </c>
       <c r="B25" t="n">
-        <v>1323.0</v>
+        <v>1331.0</v>
       </c>
       <c r="C25" t="s">
         <v>236</v>
@@ -5673,7 +5670,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F25" t="s">
         <v>93</v>
@@ -5744,7 +5741,7 @@
         <v>187</v>
       </c>
       <c r="B26" t="n">
-        <v>1359.0</v>
+        <v>1367.0</v>
       </c>
       <c r="C26" t="s">
         <v>237</v>
@@ -5765,7 +5762,7 @@
         <v>309</v>
       </c>
       <c r="I26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J26" t="n">
         <v>8.1</v>
@@ -5807,7 +5804,7 @@
         <v>1.0</v>
       </c>
       <c r="W26" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="X26" t="n">
         <v>22.0</v>
@@ -5824,7 +5821,7 @@
         <v>188</v>
       </c>
       <c r="B27" t="n">
-        <v>1461.0</v>
+        <v>1471.0</v>
       </c>
       <c r="C27" t="s">
         <v>238</v>
@@ -5845,7 +5842,7 @@
         <v>310</v>
       </c>
       <c r="I27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J27" t="n">
         <v>9.6</v>
@@ -5872,10 +5869,10 @@
         <v>15.0</v>
       </c>
       <c r="R27" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="T27" t="n">
         <v>0.0</v>
@@ -5890,13 +5887,13 @@
         <v>21.0</v>
       </c>
       <c r="X27" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>45.2</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="28">
@@ -5904,7 +5901,7 @@
         <v>189</v>
       </c>
       <c r="B28" t="n">
-        <v>1464.0</v>
+        <v>1474.0</v>
       </c>
       <c r="C28" t="s">
         <v>239</v>
@@ -5925,7 +5922,7 @@
         <v>311</v>
       </c>
       <c r="I28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J28" t="n">
         <v>8.8</v>
@@ -5955,7 +5952,7 @@
         <v>9.0</v>
       </c>
       <c r="S28" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -5984,7 +5981,7 @@
         <v>190</v>
       </c>
       <c r="B29" t="n">
-        <v>1724.0</v>
+        <v>1735.0</v>
       </c>
       <c r="C29" t="s">
         <v>240</v>
@@ -5993,7 +5990,7 @@
         <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F29" t="s">
         <v>93</v>
@@ -6005,7 +6002,7 @@
         <v>312</v>
       </c>
       <c r="I29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J29" t="n">
         <v>2.7</v>
@@ -6064,7 +6061,7 @@
         <v>191</v>
       </c>
       <c r="B30" t="n">
-        <v>711.0</v>
+        <v>715.0</v>
       </c>
       <c r="C30" t="s">
         <v>241</v>
@@ -6073,7 +6070,7 @@
         <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F30" t="s">
         <v>97</v>
@@ -6085,7 +6082,7 @@
         <v>313</v>
       </c>
       <c r="I30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J30" t="n">
         <v>1.4</v>
@@ -6144,7 +6141,7 @@
         <v>192</v>
       </c>
       <c r="B31" t="n">
-        <v>1249.0</v>
+        <v>1257.0</v>
       </c>
       <c r="C31" t="s">
         <v>242</v>
@@ -6165,10 +6162,10 @@
         <v>314</v>
       </c>
       <c r="I31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J31" t="n">
-        <v>8.4</v>
+        <v>9.2</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
@@ -6183,19 +6180,19 @@
         <v>5.0</v>
       </c>
       <c r="O31" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="S31" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -6207,16 +6204,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y31" t="n">
         <v>6.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>45.5</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="32">
@@ -6224,7 +6221,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="n">
-        <v>1467.0</v>
+        <v>1477.0</v>
       </c>
       <c r="C32" t="s">
         <v>243</v>
@@ -6245,10 +6242,10 @@
         <v>315</v>
       </c>
       <c r="I32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J32" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -6260,13 +6257,13 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="O32" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q32" t="n">
         <v>8.0</v>
@@ -6287,16 +6284,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="X32" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>56.8</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="33">
@@ -6304,7 +6301,7 @@
         <v>194</v>
       </c>
       <c r="B33" t="n">
-        <v>1489.0</v>
+        <v>1499.0</v>
       </c>
       <c r="C33" t="s">
         <v>244</v>
@@ -6313,7 +6310,7 @@
         <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F33" t="s">
         <v>97</v>
@@ -6328,7 +6325,7 @@
         <v>336</v>
       </c>
       <c r="J33" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -6340,22 +6337,22 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O33" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="P33" t="n">
         <v>0.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="R33" t="n">
         <v>10.0</v>
       </c>
       <c r="S33" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -6367,7 +6364,7 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="X33" t="n">
         <v>3.0</v>
@@ -6384,7 +6381,7 @@
         <v>195</v>
       </c>
       <c r="B34" t="n">
-        <v>1779.0</v>
+        <v>1790.0</v>
       </c>
       <c r="C34" t="s">
         <v>245</v>
@@ -6405,10 +6402,10 @@
         <v>317</v>
       </c>
       <c r="I34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -6420,22 +6417,22 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O34" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="P34" t="n">
         <v>1.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="R34" t="n">
         <v>3.0</v>
       </c>
       <c r="S34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -6447,7 +6444,7 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="X34" t="n">
         <v>6.0</v>
@@ -6464,7 +6461,7 @@
         <v>196</v>
       </c>
       <c r="B35" t="n">
-        <v>2129.0</v>
+        <v>2144.0</v>
       </c>
       <c r="C35" t="s">
         <v>246</v>
@@ -6485,10 +6482,10 @@
         <v>318</v>
       </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J35" t="n">
-        <v>7.8</v>
+        <v>8.8</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
@@ -6515,7 +6512,7 @@
         <v>4.0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
@@ -6530,13 +6527,13 @@
         <v>19.0</v>
       </c>
       <c r="X35" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y35" t="n">
         <v>6.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>60.0</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="36">
@@ -6544,7 +6541,7 @@
         <v>197</v>
       </c>
       <c r="B36" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="C36" t="s">
         <v>247</v>
@@ -6565,7 +6562,7 @@
         <v>319</v>
       </c>
       <c r="I36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -6624,7 +6621,7 @@
         <v>198</v>
       </c>
       <c r="B37" t="n">
-        <v>746.0</v>
+        <v>750.0</v>
       </c>
       <c r="C37" t="s">
         <v>248</v>
@@ -6633,7 +6630,7 @@
         <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
         <v>93</v>
@@ -6645,7 +6642,7 @@
         <v>320</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J37" t="n">
         <v>2.6</v>
@@ -6690,13 +6687,13 @@
         <v>12.0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="38">
@@ -6704,7 +6701,7 @@
         <v>199</v>
       </c>
       <c r="B38" t="n">
-        <v>814.0</v>
+        <v>819.0</v>
       </c>
       <c r="C38" t="s">
         <v>249</v>
@@ -6725,7 +6722,7 @@
         <v>321</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J38" t="n">
         <v>0.5</v>
@@ -6784,7 +6781,7 @@
         <v>200</v>
       </c>
       <c r="B39" t="n">
-        <v>921.0</v>
+        <v>926.0</v>
       </c>
       <c r="C39" t="s">
         <v>250</v>
@@ -6805,7 +6802,7 @@
         <v>322</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J39" t="n">
         <v>4.2</v>
@@ -6864,7 +6861,7 @@
         <v>201</v>
       </c>
       <c r="B40" t="n">
-        <v>1356.0</v>
+        <v>1364.0</v>
       </c>
       <c r="C40" t="s">
         <v>251</v>
@@ -6885,7 +6882,7 @@
         <v>323</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J40" t="n">
         <v>7.9</v>
@@ -6944,7 +6941,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="n">
-        <v>1644.0</v>
+        <v>1655.0</v>
       </c>
       <c r="C41" t="s">
         <v>252</v>
@@ -6965,7 +6962,7 @@
         <v>324</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J41" t="n">
         <v>0.2</v>
@@ -7024,7 +7021,7 @@
         <v>203</v>
       </c>
       <c r="B42" t="n">
-        <v>1941.0</v>
+        <v>1955.0</v>
       </c>
       <c r="C42" t="s">
         <v>253</v>
@@ -7045,7 +7042,7 @@
         <v>325</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J42" t="n">
         <v>1.0</v>
@@ -7125,7 +7122,7 @@
         <v>326</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J43" t="n">
         <v>3.5</v>
@@ -7184,7 +7181,7 @@
         <v>205</v>
       </c>
       <c r="B44" t="n">
-        <v>524.0</v>
+        <v>526.0</v>
       </c>
       <c r="C44" t="s">
         <v>255</v>
@@ -7193,7 +7190,7 @@
         <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
@@ -7205,10 +7202,10 @@
         <v>327</v>
       </c>
       <c r="I44" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J44" t="n">
-        <v>8.2</v>
+        <v>9.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -7220,7 +7217,7 @@
         <v>0.0</v>
       </c>
       <c r="N44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O44" t="n">
         <v>9.0</v>
@@ -7229,13 +7226,13 @@
         <v>2.0</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="T44" t="n">
         <v>0.0</v>
@@ -7247,16 +7244,16 @@
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
       </c>
       <c r="Z44" t="n">
-        <v>83.3</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="45">
@@ -7264,7 +7261,7 @@
         <v>206</v>
       </c>
       <c r="B45" t="n">
-        <v>599.0</v>
+        <v>602.0</v>
       </c>
       <c r="C45" t="s">
         <v>256</v>
@@ -7285,7 +7282,7 @@
         <v>328</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J45" t="n">
         <v>1.3</v>
@@ -7344,7 +7341,7 @@
         <v>207</v>
       </c>
       <c r="B46" t="n">
-        <v>836.0</v>
+        <v>841.0</v>
       </c>
       <c r="C46" t="s">
         <v>257</v>
@@ -7353,7 +7350,7 @@
         <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F46" t="s">
         <v>97</v>
@@ -7365,10 +7362,10 @@
         <v>329</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J46" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -7407,16 +7404,16 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="X46" t="n">
         <v>1.0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z46" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="47">
@@ -7424,7 +7421,7 @@
         <v>208</v>
       </c>
       <c r="B47" t="n">
-        <v>1157.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C47" t="s">
         <v>258</v>
@@ -7445,7 +7442,7 @@
         <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J47" t="n">
         <v>2.9</v>
@@ -7504,7 +7501,7 @@
         <v>209</v>
       </c>
       <c r="B48" t="n">
-        <v>1232.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C48" t="s">
         <v>259</v>
@@ -7525,10 +7522,10 @@
         <v>331</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K48" t="n">
         <v>0.0</v>
@@ -7549,7 +7546,7 @@
         <v>0.0</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R48" t="n">
         <v>0.0</v>
@@ -7567,7 +7564,7 @@
         <v>0.0</v>
       </c>
       <c r="W48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X48" t="n">
         <v>0.0</v>
@@ -7584,7 +7581,7 @@
         <v>210</v>
       </c>
       <c r="B49" t="n">
-        <v>1721.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C49" t="s">
         <v>260</v>
@@ -7605,10 +7602,10 @@
         <v>332</v>
       </c>
       <c r="I49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J49" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K49" t="n">
         <v>0.0</v>
@@ -7647,16 +7644,16 @@
         <v>0.0</v>
       </c>
       <c r="W49" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="X49" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="Y49" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="Z49" t="n">
-        <v>64.5</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="50">
@@ -7664,7 +7661,7 @@
         <v>211</v>
       </c>
       <c r="B50" t="n">
-        <v>1790.0</v>
+        <v>1801.0</v>
       </c>
       <c r="C50" t="s">
         <v>261</v>
@@ -7673,7 +7670,7 @@
         <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
         <v>97</v>
@@ -7744,7 +7741,7 @@
         <v>212</v>
       </c>
       <c r="B51" t="n">
-        <v>1857.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C51" t="s">
         <v>262</v>
@@ -7753,7 +7750,7 @@
         <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
         <v>97</v>
@@ -7765,10 +7762,10 @@
         <v>334</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -7789,7 +7786,7 @@
         <v>0.0</v>
       </c>
       <c r="Q51" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="R51" t="n">
         <v>7.0</v>
@@ -7807,7 +7804,7 @@
         <v>0.0</v>
       </c>
       <c r="W51" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="X51" t="n">
         <v>3.0</v>
@@ -7859,79 +7856,79 @@
         <v>145</v>
       </c>
       <c r="J1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" t="s">
         <v>350</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>351</v>
-      </c>
-      <c r="L1" t="s">
-        <v>352</v>
       </c>
       <c r="M1" t="s">
         <v>146</v>
       </c>
       <c r="N1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O1" t="s">
         <v>353</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>354</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>355</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>356</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>357</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>359</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>360</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>361</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>362</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>363</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>364</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>365</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>366</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>367</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>368</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>369</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>370</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>371</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>372</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2">
@@ -7939,7 +7936,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="n">
-        <v>1421.0</v>
+        <v>1431.0</v>
       </c>
       <c r="C2" t="s">
         <v>223</v>
@@ -7960,7 +7957,7 @@
         <v>296</v>
       </c>
       <c r="I2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J2" t="n">
         <v>13.0</v>
@@ -8008,16 +8005,16 @@
         <v>1.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA2" t="n">
         <v>51.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.36</v>
@@ -8043,7 +8040,7 @@
         <v>188</v>
       </c>
       <c r="B3" t="n">
-        <v>1461.0</v>
+        <v>1471.0</v>
       </c>
       <c r="C3" t="s">
         <v>238</v>
@@ -8064,7 +8061,7 @@
         <v>310</v>
       </c>
       <c r="I3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J3" t="n">
         <v>11.0</v>
@@ -8115,7 +8112,7 @@
         <v>1.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA3" t="n">
         <v>31.0</v>
@@ -8147,7 +8144,7 @@
         <v>174</v>
       </c>
       <c r="B4" t="n">
-        <v>1725.0</v>
+        <v>1736.0</v>
       </c>
       <c r="C4" t="s">
         <v>224</v>
@@ -8168,7 +8165,7 @@
         <v>297</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J4" t="n">
         <v>10.0</v>
@@ -8213,16 +8210,16 @@
         <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB4" t="n">
         <v>24.0</v>
@@ -8251,7 +8248,7 @@
         <v>164</v>
       </c>
       <c r="B5" t="n">
-        <v>1927.0</v>
+        <v>1940.0</v>
       </c>
       <c r="C5" t="s">
         <v>214</v>
@@ -8323,13 +8320,13 @@
         <v>2.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA5" t="n">
         <v>9.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="AC5" t="n">
         <v>0.42</v>
@@ -8355,7 +8352,7 @@
         <v>191</v>
       </c>
       <c r="B6" t="n">
-        <v>711.0</v>
+        <v>715.0</v>
       </c>
       <c r="C6" t="s">
         <v>241</v>
@@ -8364,7 +8361,7 @@
         <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -8376,7 +8373,7 @@
         <v>313</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J6" t="n">
         <v>6.0</v>
@@ -8459,7 +8456,7 @@
         <v>193</v>
       </c>
       <c r="B7" t="n">
-        <v>1467.0</v>
+        <v>1477.0</v>
       </c>
       <c r="C7" t="s">
         <v>243</v>
@@ -8480,19 +8477,19 @@
         <v>315</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L7" t="n">
-        <v>675.0</v>
+        <v>765.0</v>
       </c>
       <c r="M7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -8519,43 +8516,43 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.8</v>
+        <v>3.0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.8</v>
+        <v>3.0</v>
       </c>
       <c r="X7" t="n">
         <v>0.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
@@ -8563,7 +8560,7 @@
         <v>195</v>
       </c>
       <c r="B8" t="n">
-        <v>1779.0</v>
+        <v>1790.0</v>
       </c>
       <c r="C8" t="s">
         <v>245</v>
@@ -8584,19 +8581,19 @@
         <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n">
         <v>8.0</v>
       </c>
       <c r="L8" t="n">
-        <v>668.0</v>
+        <v>684.0</v>
       </c>
       <c r="M8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -8635,28 +8632,28 @@
         <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AH8" t="n">
         <v>0.12</v>
@@ -8667,7 +8664,7 @@
         <v>198</v>
       </c>
       <c r="B9" t="n">
-        <v>746.0</v>
+        <v>750.0</v>
       </c>
       <c r="C9" t="s">
         <v>248</v>
@@ -8676,7 +8673,7 @@
         <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>93</v>
@@ -8688,7 +8685,7 @@
         <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J9" t="n">
         <v>9.0</v>
@@ -8739,7 +8736,7 @@
         <v>0.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA9" t="n">
         <v>12.0</v>
@@ -8771,7 +8768,7 @@
         <v>178</v>
       </c>
       <c r="B10" t="n">
-        <v>1153.0</v>
+        <v>1159.0</v>
       </c>
       <c r="C10" t="s">
         <v>228</v>
@@ -8792,19 +8789,19 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L10" t="n">
-        <v>575.0</v>
+        <v>643.0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="N10" t="n">
         <v>1.0</v>
@@ -8849,25 +8846,25 @@
         <v>5.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
@@ -8875,7 +8872,7 @@
         <v>181</v>
       </c>
       <c r="B11" t="n">
-        <v>1710.0</v>
+        <v>1721.0</v>
       </c>
       <c r="C11" t="s">
         <v>231</v>
@@ -8896,19 +8893,19 @@
         <v>304</v>
       </c>
       <c r="I11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J11" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K11" t="n">
         <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>159.0</v>
+        <v>181.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -8935,16 +8932,16 @@
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X11" t="n">
         <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z11" t="n">
         <v>0.0</v>
@@ -8953,16 +8950,16 @@
         <v>4.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AD11" t="n">
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
@@ -8971,7 +8968,7 @@
         <v>0.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -8979,7 +8976,7 @@
         <v>210</v>
       </c>
       <c r="B12" t="n">
-        <v>1721.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C12" t="s">
         <v>260</v>
@@ -9000,19 +8997,19 @@
         <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J12" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N12" t="n">
         <v>1.0</v>
@@ -9048,16 +9045,16 @@
         <v>0.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.08</v>
@@ -9075,7 +9072,7 @@
         <v>0.08</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -9083,7 +9080,7 @@
         <v>197</v>
       </c>
       <c r="B13" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="C13" t="s">
         <v>247</v>
@@ -9104,7 +9101,7 @@
         <v>319</v>
       </c>
       <c r="I13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J13" t="n">
         <v>1.0</v>
@@ -9187,7 +9184,7 @@
         <v>165</v>
       </c>
       <c r="B14" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="C14" t="s">
         <v>215</v>
@@ -9208,7 +9205,7 @@
         <v>288</v>
       </c>
       <c r="I14" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J14" t="n">
         <v>8.0</v>
@@ -9247,10 +9244,10 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X14" t="n">
         <v>0.4</v>
@@ -9291,7 +9288,7 @@
         <v>182</v>
       </c>
       <c r="B15" t="n">
-        <v>378.0</v>
+        <v>379.0</v>
       </c>
       <c r="C15" t="s">
         <v>232</v>
@@ -9312,7 +9309,7 @@
         <v>305</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J15" t="n">
         <v>5.0</v>
@@ -9395,7 +9392,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="n">
-        <v>440.0</v>
+        <v>441.0</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -9404,7 +9401,7 @@
         <v>269</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -9416,7 +9413,7 @@
         <v>306</v>
       </c>
       <c r="I16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J16" t="n">
         <v>11.0</v>
@@ -9499,7 +9496,7 @@
         <v>166</v>
       </c>
       <c r="B17" t="n">
-        <v>679.0</v>
+        <v>683.0</v>
       </c>
       <c r="C17" t="s">
         <v>216</v>
@@ -9520,7 +9517,7 @@
         <v>289</v>
       </c>
       <c r="I17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J17" t="n">
         <v>8.0</v>
@@ -9603,7 +9600,7 @@
         <v>199</v>
       </c>
       <c r="B18" t="n">
-        <v>814.0</v>
+        <v>819.0</v>
       </c>
       <c r="C18" t="s">
         <v>249</v>
@@ -9624,7 +9621,7 @@
         <v>321</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J18" t="n">
         <v>1.0</v>
@@ -9707,7 +9704,7 @@
         <v>200</v>
       </c>
       <c r="B19" t="n">
-        <v>921.0</v>
+        <v>926.0</v>
       </c>
       <c r="C19" t="s">
         <v>250</v>
@@ -9728,7 +9725,7 @@
         <v>322</v>
       </c>
       <c r="I19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J19" t="n">
         <v>5.0</v>
@@ -9811,7 +9808,7 @@
         <v>184</v>
       </c>
       <c r="B20" t="n">
-        <v>941.0</v>
+        <v>946.0</v>
       </c>
       <c r="C20" t="s">
         <v>234</v>
@@ -9820,7 +9817,7 @@
         <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
         <v>93</v>
@@ -9832,7 +9829,7 @@
         <v>307</v>
       </c>
       <c r="I20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J20" t="n">
         <v>3.0</v>
@@ -9915,7 +9912,7 @@
         <v>170</v>
       </c>
       <c r="B21" t="n">
-        <v>990.0</v>
+        <v>995.0</v>
       </c>
       <c r="C21" t="s">
         <v>220</v>
@@ -9936,7 +9933,7 @@
         <v>293</v>
       </c>
       <c r="I21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J21" t="n">
         <v>5.0</v>
@@ -10019,7 +10016,7 @@
         <v>185</v>
       </c>
       <c r="B22" t="n">
-        <v>1207.0</v>
+        <v>1214.0</v>
       </c>
       <c r="C22" t="s">
         <v>235</v>
@@ -10123,7 +10120,7 @@
         <v>171</v>
       </c>
       <c r="B23" t="n">
-        <v>1300.0</v>
+        <v>1308.0</v>
       </c>
       <c r="C23" t="s">
         <v>221</v>
@@ -10227,7 +10224,7 @@
         <v>186</v>
       </c>
       <c r="B24" t="n">
-        <v>1323.0</v>
+        <v>1331.0</v>
       </c>
       <c r="C24" t="s">
         <v>236</v>
@@ -10236,7 +10233,7 @@
         <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
         <v>93</v>
@@ -10331,7 +10328,7 @@
         <v>172</v>
       </c>
       <c r="B25" t="n">
-        <v>1329.0</v>
+        <v>1337.0</v>
       </c>
       <c r="C25" t="s">
         <v>222</v>
@@ -10352,7 +10349,7 @@
         <v>295</v>
       </c>
       <c r="I25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J25" t="n">
         <v>11.0</v>
@@ -10391,16 +10388,16 @@
         <v>0.0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="X25" t="n">
         <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Z25" t="n">
         <v>4.0</v>
@@ -10427,7 +10424,7 @@
         <v>0.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26">
@@ -10435,7 +10432,7 @@
         <v>201</v>
       </c>
       <c r="B26" t="n">
-        <v>1356.0</v>
+        <v>1364.0</v>
       </c>
       <c r="C26" t="s">
         <v>251</v>
@@ -10456,7 +10453,7 @@
         <v>323</v>
       </c>
       <c r="I26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J26" t="n">
         <v>12.0</v>
@@ -10539,7 +10536,7 @@
         <v>187</v>
       </c>
       <c r="B27" t="n">
-        <v>1359.0</v>
+        <v>1367.0</v>
       </c>
       <c r="C27" t="s">
         <v>237</v>
@@ -10560,7 +10557,7 @@
         <v>309</v>
       </c>
       <c r="I27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J27" t="n">
         <v>9.0</v>
@@ -10599,16 +10596,16 @@
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W27" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z27" t="n">
         <v>3.0</v>
@@ -10635,7 +10632,7 @@
         <v>0.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -10643,7 +10640,7 @@
         <v>189</v>
       </c>
       <c r="B28" t="n">
-        <v>1464.0</v>
+        <v>1474.0</v>
       </c>
       <c r="C28" t="s">
         <v>239</v>
@@ -10664,7 +10661,7 @@
         <v>311</v>
       </c>
       <c r="I28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J28" t="n">
         <v>13.0</v>
@@ -10747,7 +10744,7 @@
         <v>202</v>
       </c>
       <c r="B29" t="n">
-        <v>1644.0</v>
+        <v>1655.0</v>
       </c>
       <c r="C29" t="s">
         <v>252</v>
@@ -10768,7 +10765,7 @@
         <v>324</v>
       </c>
       <c r="I29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J29" t="n">
         <v>1.0</v>
@@ -10851,7 +10848,7 @@
         <v>190</v>
       </c>
       <c r="B30" t="n">
-        <v>1724.0</v>
+        <v>1735.0</v>
       </c>
       <c r="C30" t="s">
         <v>240</v>
@@ -10860,7 +10857,7 @@
         <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F30" t="s">
         <v>93</v>
@@ -10872,7 +10869,7 @@
         <v>312</v>
       </c>
       <c r="I30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J30" t="n">
         <v>8.0</v>
@@ -10917,7 +10914,7 @@
         <v>0.1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y30" t="n">
         <v>0.6</v>
@@ -10955,7 +10952,7 @@
         <v>175</v>
       </c>
       <c r="B31" t="n">
-        <v>1783.0</v>
+        <v>1794.0</v>
       </c>
       <c r="C31" t="s">
         <v>225</v>
@@ -10976,7 +10973,7 @@
         <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J31" t="n">
         <v>12.0</v>
@@ -11030,7 +11027,7 @@
         <v>17.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="AB31" t="n">
         <v>29.0</v>
@@ -11059,7 +11056,7 @@
         <v>203</v>
       </c>
       <c r="B32" t="n">
-        <v>1941.0</v>
+        <v>1955.0</v>
       </c>
       <c r="C32" t="s">
         <v>253</v>
@@ -11080,7 +11077,7 @@
         <v>325</v>
       </c>
       <c r="I32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J32" t="n">
         <v>2.0</v>
@@ -11163,7 +11160,7 @@
         <v>167</v>
       </c>
       <c r="B33" t="n">
-        <v>2006.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C33" t="s">
         <v>217</v>
@@ -11184,7 +11181,7 @@
         <v>290</v>
       </c>
       <c r="I33" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J33" t="n">
         <v>11.0</v>
@@ -11267,7 +11264,7 @@
         <v>168</v>
       </c>
       <c r="B34" t="n">
-        <v>2170.0</v>
+        <v>2185.0</v>
       </c>
       <c r="C34" t="s">
         <v>218</v>
@@ -11288,7 +11285,7 @@
         <v>291</v>
       </c>
       <c r="I34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J34" t="n">
         <v>12.0</v>
@@ -11392,7 +11389,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J35" t="n">
         <v>6.0</v>
@@ -11475,7 +11472,7 @@
         <v>176</v>
       </c>
       <c r="B36" t="n">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="C36" t="s">
         <v>226</v>
@@ -11484,7 +11481,7 @@
         <v>263</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
@@ -11499,16 +11496,16 @@
         <v>335</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K36" t="n">
         <v>1.0</v>
       </c>
       <c r="L36" t="n">
-        <v>116.0</v>
+        <v>138.0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -11535,10 +11532,10 @@
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X36" t="n">
         <v>0.0</v>
@@ -11553,7 +11550,7 @@
         <v>1.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
@@ -11571,7 +11568,7 @@
         <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="37">
@@ -11579,7 +11576,7 @@
         <v>177</v>
       </c>
       <c r="B37" t="n">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="C37" t="s">
         <v>227</v>
@@ -11600,7 +11597,7 @@
         <v>300</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J37" t="n">
         <v>9.0</v>
@@ -11683,7 +11680,7 @@
         <v>163</v>
       </c>
       <c r="B38" t="n">
-        <v>482.0</v>
+        <v>483.0</v>
       </c>
       <c r="C38" t="s">
         <v>213</v>
@@ -11707,16 +11704,16 @@
         <v>335</v>
       </c>
       <c r="J38" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K38" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>919.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M38" t="n">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -11737,7 +11734,7 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U38" t="n">
         <v>1.0</v>
@@ -11749,37 +11746,37 @@
         <v>0.9</v>
       </c>
       <c r="X38" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z38" t="n">
         <v>8.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="39">
@@ -11787,7 +11784,7 @@
         <v>205</v>
       </c>
       <c r="B39" t="n">
-        <v>524.0</v>
+        <v>526.0</v>
       </c>
       <c r="C39" t="s">
         <v>255</v>
@@ -11796,7 +11793,7 @@
         <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
@@ -11808,20 +11805,20 @@
         <v>327</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J39" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>809.0</v>
+      </c>
+      <c r="M39" t="n">
         <v>9.0</v>
       </c>
-      <c r="L39" t="n">
-        <v>741.0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>8.2</v>
-      </c>
       <c r="N39" t="n">
         <v>0.0</v>
       </c>
@@ -11847,25 +11844,25 @@
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W39" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="X39" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC39" t="n">
         <v>0.0</v>
@@ -11891,7 +11888,7 @@
         <v>206</v>
       </c>
       <c r="B40" t="n">
-        <v>599.0</v>
+        <v>602.0</v>
       </c>
       <c r="C40" t="s">
         <v>256</v>
@@ -11912,7 +11909,7 @@
         <v>328</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J40" t="n">
         <v>3.0</v>
@@ -11995,7 +11992,7 @@
         <v>207</v>
       </c>
       <c r="B41" t="n">
-        <v>836.0</v>
+        <v>841.0</v>
       </c>
       <c r="C41" t="s">
         <v>257</v>
@@ -12004,7 +12001,7 @@
         <v>274</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
@@ -12016,19 +12013,19 @@
         <v>329</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J41" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K41" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L41" t="n">
-        <v>720.0</v>
+        <v>810.0</v>
       </c>
       <c r="M41" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -12099,7 +12096,7 @@
         <v>208</v>
       </c>
       <c r="B42" t="n">
-        <v>1157.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C42" t="s">
         <v>258</v>
@@ -12120,7 +12117,7 @@
         <v>330</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J42" t="n">
         <v>5.0</v>
@@ -12203,7 +12200,7 @@
         <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>1232.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C43" t="s">
         <v>259</v>
@@ -12224,19 +12221,19 @@
         <v>331</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -12275,13 +12272,13 @@
         <v>0.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA43" t="n">
         <v>0.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
@@ -12307,7 +12304,7 @@
         <v>192</v>
       </c>
       <c r="B44" t="n">
-        <v>1249.0</v>
+        <v>1257.0</v>
       </c>
       <c r="C44" t="s">
         <v>242</v>
@@ -12328,19 +12325,19 @@
         <v>314</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J44" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K44" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L44" t="n">
-        <v>752.0</v>
+        <v>826.0</v>
       </c>
       <c r="M44" t="n">
-        <v>8.4</v>
+        <v>9.2</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -12379,13 +12376,13 @@
         <v>1.3</v>
       </c>
       <c r="Z44" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA44" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB44" t="n">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC44" t="n">
         <v>0.0</v>
@@ -12411,7 +12408,7 @@
         <v>179</v>
       </c>
       <c r="B45" t="n">
-        <v>1324.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C45" t="s">
         <v>229</v>
@@ -12432,7 +12429,7 @@
         <v>302</v>
       </c>
       <c r="I45" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="J45" t="n">
         <v>11.0</v>
@@ -12515,7 +12512,7 @@
         <v>180</v>
       </c>
       <c r="B46" t="n">
-        <v>1420.0</v>
+        <v>1430.0</v>
       </c>
       <c r="C46" t="s">
         <v>230</v>
@@ -12536,19 +12533,19 @@
         <v>303</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J46" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K46" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L46" t="n">
-        <v>818.0</v>
+        <v>908.0</v>
       </c>
       <c r="M46" t="n">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -12587,13 +12584,13 @@
         <v>1.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA46" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="AB46" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AC46" t="n">
         <v>0.0</v>
@@ -12619,7 +12616,7 @@
         <v>169</v>
       </c>
       <c r="B47" t="n">
-        <v>1436.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C47" t="s">
         <v>219</v>
@@ -12640,19 +12637,19 @@
         <v>292</v>
       </c>
       <c r="I47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J47" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K47" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L47" t="n">
-        <v>607.0</v>
+        <v>689.0</v>
       </c>
       <c r="M47" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -12691,13 +12688,13 @@
         <v>0.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="AC47" t="n">
         <v>0.0</v>
@@ -12715,7 +12712,7 @@
         <v>0.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48">
@@ -12723,7 +12720,7 @@
         <v>194</v>
       </c>
       <c r="B48" t="n">
-        <v>1489.0</v>
+        <v>1499.0</v>
       </c>
       <c r="C48" t="s">
         <v>244</v>
@@ -12732,7 +12729,7 @@
         <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F48" t="s">
         <v>97</v>
@@ -12747,16 +12744,16 @@
         <v>336</v>
       </c>
       <c r="J48" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K48" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L48" t="n">
-        <v>550.0</v>
+        <v>624.0</v>
       </c>
       <c r="M48" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -12795,13 +12792,13 @@
         <v>1.3</v>
       </c>
       <c r="Z48" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB48" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC48" t="n">
         <v>0.0</v>
@@ -12819,7 +12816,7 @@
         <v>0.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="49">
@@ -12827,7 +12824,7 @@
         <v>211</v>
       </c>
       <c r="B49" t="n">
-        <v>1790.0</v>
+        <v>1801.0</v>
       </c>
       <c r="C49" t="s">
         <v>261</v>
@@ -12836,7 +12833,7 @@
         <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
         <v>97</v>
@@ -12931,7 +12928,7 @@
         <v>212</v>
       </c>
       <c r="B50" t="n">
-        <v>1857.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C50" t="s">
         <v>262</v>
@@ -12940,7 +12937,7 @@
         <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F50" t="s">
         <v>97</v>
@@ -12952,19 +12949,19 @@
         <v>334</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J50" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K50" t="n">
         <v>4.0</v>
       </c>
       <c r="L50" t="n">
-        <v>497.0</v>
+        <v>513.0</v>
       </c>
       <c r="M50" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
@@ -13006,10 +13003,10 @@
         <v>3.0</v>
       </c>
       <c r="AA50" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB50" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC50" t="n">
         <v>0.0</v>
@@ -13035,7 +13032,7 @@
         <v>196</v>
       </c>
       <c r="B51" t="n">
-        <v>2129.0</v>
+        <v>2144.0</v>
       </c>
       <c r="C51" t="s">
         <v>246</v>
@@ -13056,19 +13053,19 @@
         <v>318</v>
       </c>
       <c r="I51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J51" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K51" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L51" t="n">
-        <v>700.0</v>
+        <v>790.0</v>
       </c>
       <c r="M51" t="n">
-        <v>7.8</v>
+        <v>8.8</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -13095,25 +13092,25 @@
         <v>0.0</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X51" t="n">
         <v>0.0</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB51" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0</v>
